--- a/data/trans_camb/P16B03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,27 +601,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-100,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,52; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,52; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,91</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 46,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 25,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 23,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 22,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 22,29</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,34%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 88,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 88,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; 33,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 31,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 29,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 29,68</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,21; 33,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,32; 25,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,08; 8,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,3; 7,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,36; 14,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,57; 10,45</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,53%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,27; 56,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,45; 38,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,27; 9,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,79; 7,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,7; 18,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,26; 12,2</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,22</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,43; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,94; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,07; 12,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,82; 9,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,49; 6,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,27; 4,31</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,84%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,43; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,94; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,07; 16,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,38; 11,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,74; 8,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,14; 4,66</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,78</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,39</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,02; 42,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,43; 25,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,24; 27,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,31; 16,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,47; 29,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,25; 15,71</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,12%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,91%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,9; 85,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,43; 49,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,59; 39,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,78; 22,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,86; 44,61</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,33; 23,09</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; 21,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,1; 16,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 10,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 5,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 11,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; 5,82</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,62; 30,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,88; 23,64</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 12,08</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; 6,43</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 14,34</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 7,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-16,56</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,03</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,59; 26,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 45,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,35; 17,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 17,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-76,52; 0,0</t>
+          <t>-3,73; 18,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 18,76</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,56%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,23; 36,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 83,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 21,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 22,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-76,52; 0,0</t>
+          <t>-3,66; 23,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 24,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,52</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,52</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>-1,36</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,01</t>
+          <t>-27,21; 33,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,82</t>
+          <t>-44,32; 25,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 25,11</t>
+          <t>-9,08; 8,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 23,44</t>
+          <t>-15,3; 7,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 22,21</t>
+          <t>-6,36; 14,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 22,29</t>
+          <t>-14,57; 10,45</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>-7,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>-1,53%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,62</t>
+          <t>-32,27; 56,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,03</t>
+          <t>-50,45; 38,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 33,58</t>
+          <t>-9,27; 9,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 31,61</t>
+          <t>-15,79; 7,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 29,47</t>
+          <t>-6,7; 18,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 29,68</t>
+          <t>-16,26; 12,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>-23,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-7,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-7,22</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 33,83</t>
+          <t>-62,43; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 25,66</t>
+          <t>-46,94; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 8,05</t>
+          <t>-15,07; 12,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 7,36</t>
+          <t>-25,82; 9,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 14,54</t>
+          <t>-18,49; 6,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 10,45</t>
+          <t>-23,27; 4,31</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>-23,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,25%</t>
+          <t>-9,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>-0,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>-7,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>-5,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,53%</t>
+          <t>-7,84%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 56,08</t>
+          <t>-62,43; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,45; 38,54</t>
+          <t>-46,94; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 9,1</t>
+          <t>-16,07; 16,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 7,95</t>
+          <t>-27,38; 11,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 18,02</t>
+          <t>-19,74; 8,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 12,2</t>
+          <t>-25,14; 4,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-23,43</t>
+          <t>17,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,66</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,08</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>17,39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>0,68</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 0,0</t>
+          <t>-11,02; 42,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-46,94; 0,0</t>
+          <t>-35,43; 25,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 12,87</t>
+          <t>3,24; 27,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 9,39</t>
+          <t>-16,31; 16,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 6,98</t>
+          <t>6,47; 29,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 4,31</t>
+          <t>-14,25; 15,71</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-23,43%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,66%</t>
+          <t>-6,12%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,86%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,85%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>0,91%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 0,0</t>
+          <t>-13,9; 85,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-46,94; 0,0</t>
+          <t>-50,43; 49,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 16,11</t>
+          <t>3,59; 39,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 11,67</t>
+          <t>-18,78; 22,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 8,19</t>
+          <t>7,86; 44,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 4,66</t>
+          <t>-17,33; 23,09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>17,78</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,83</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>17,39</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,5</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 42,86</t>
+          <t>-12,88; 21,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-35,43; 25,14</t>
+          <t>-18,1; 16,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,24; 27,18</t>
+          <t>-0,9; 10,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 16,92</t>
+          <t>-8,19; 5,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,47; 29,22</t>
+          <t>0,37; 11,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 15,71</t>
+          <t>-7,7; 5,82</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-0,59%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 85,24</t>
+          <t>-15,62; 30,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 49,11</t>
+          <t>-21,88; 23,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,59; 39,14</t>
+          <t>-0,96; 12,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 22,75</t>
+          <t>-8,91; 6,43</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,86; 44,61</t>
+          <t>0,44; 14,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 23,09</t>
+          <t>-8,88; 7,01</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>4,47</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>5,84</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-12,88; 21,01</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-18,1; 16,68</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 10,24</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-8,19; 5,5</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 11,62</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 5,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>4,93%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-1,68%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>5,0%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-1,4%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>6,82%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-0,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-15,62; 30,47</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-21,88; 23,64</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 12,08</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-8,91; 6,43</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 14,34</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-8,88; 7,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16B03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,59; 26,11</t>
+          <t>-37,92; 31,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,66</t>
+          <t>0,0; 50,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 17,04</t>
+          <t>-2,98; 17,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 17,12</t>
+          <t>-2,61; 19,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 18,4</t>
+          <t>-3,35; 16,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 18,76</t>
+          <t>-0,3; 18,46</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-45,23; 36,12</t>
+          <t>-41,12; 47,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,88</t>
+          <t>0,0; 101,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 21,36</t>
+          <t>-2,95; 22,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 22,09</t>
+          <t>-2,6; 25,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 23,34</t>
+          <t>-3,55; 20,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 24,08</t>
+          <t>-0,29; 22,86</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 33,83</t>
+          <t>-27,47; 33,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 25,66</t>
+          <t>-43,06; 23,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 8,05</t>
+          <t>-8,07; 7,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 7,36</t>
+          <t>-11,75; 9,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 14,54</t>
+          <t>-6,68; 13,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 10,45</t>
+          <t>-15,2; 11,18</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 56,08</t>
+          <t>-30,58; 56,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,45; 38,54</t>
+          <t>-49,8; 34,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 9,1</t>
+          <t>-8,21; 9,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 7,95</t>
+          <t>-12,12; 10,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 18,02</t>
+          <t>-7,31; 15,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 12,2</t>
+          <t>-16,55; 13,52</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 0,0</t>
+          <t>-64,66; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-46,94; 0,0</t>
+          <t>-42,45; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 12,87</t>
+          <t>-14,51; 12,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 9,39</t>
+          <t>-24,19; 8,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 6,98</t>
+          <t>-19,83; 6,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 4,31</t>
+          <t>-21,47; 5,56</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 0,0</t>
+          <t>-64,66; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,94; 0,0</t>
+          <t>-42,45; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 16,11</t>
+          <t>-15,24; 14,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 11,67</t>
+          <t>-26,53; 10,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 8,19</t>
+          <t>-21,02; 7,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 4,66</t>
+          <t>-22,85; 6,32</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 42,86</t>
+          <t>-10,79; 46,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-35,43; 25,14</t>
+          <t>-34,73; 25,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 27,18</t>
+          <t>2,58; 28,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 16,92</t>
+          <t>-16,37; 15,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 29,22</t>
+          <t>6,58; 29,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 15,71</t>
+          <t>-14,25; 15,0</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 85,24</t>
+          <t>-16,0; 99,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 49,11</t>
+          <t>-48,52; 55,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,59; 39,14</t>
+          <t>2,89; 40,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 22,75</t>
+          <t>-18,41; 21,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,86; 44,61</t>
+          <t>8,15; 45,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 23,09</t>
+          <t>-17,61; 22,44</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 21,01</t>
+          <t>-16,15; 19,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 16,68</t>
+          <t>-19,19; 15,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 10,24</t>
+          <t>-1,46; 10,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 5,5</t>
+          <t>-7,91; 5,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 11,62</t>
+          <t>0,49; 12,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 5,82</t>
+          <t>-7,49; 5,91</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 30,47</t>
+          <t>-19,19; 27,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 23,64</t>
+          <t>-23,65; 22,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 12,08</t>
+          <t>-1,43; 12,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 6,43</t>
+          <t>-8,65; 6,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0,44; 14,34</t>
+          <t>0,55; 15,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 7,01</t>
+          <t>-8,49; 7,17</t>
         </is>
       </c>
     </row>
